--- a/Dicionário de Dados - Américo.xlsx
+++ b/Dicionário de Dados - Américo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ccdd352d6acfae1b/Ambiente de Trabalho/Estágio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:4000b_{F8BDB674-10F6-42CA-BCE2-C29FB149092B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4B93DF0-E311-446D-9A01-CFD335BCF81C}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:4000b_{F8BDB674-10F6-42CA-BCE2-C29FB149092B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01551ED7-0A48-4A86-9E26-BE5E8A4849B3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="98">
   <si>
     <t>Elemento(EN)</t>
   </si>
@@ -61,9 +61,6 @@
     <t>sub_type</t>
   </si>
   <si>
-    <t>Sub Tipo</t>
-  </si>
-  <si>
     <t>Booleano (Sim/Não)</t>
   </si>
   <si>
@@ -160,17 +157,170 @@
     <t>Forma</t>
   </si>
   <si>
-    <t>Relativamente ao vocabulário controlado, tendo em conta cada elemento, deve ser inserido todos os termos que podem ser usados nesse campo, como por exemplo o Número de Ordem que pode ter valores tais como "triangular", "losângica", entre outros</t>
-  </si>
-  <si>
     <t>triangular, losângica</t>
+  </si>
+  <si>
+    <t>A9-ArchaeologicalExcavation</t>
+  </si>
+  <si>
+    <t>Escavação Arquiológica</t>
+  </si>
+  <si>
+    <t>Esta classe descreve o conceito geral de uma escavação arquiológica como um conjunto de atividades coordenadas realizadas numa área considerada como parte de um maior contexto. Uma escavação arqueológica tem normalmente associada um responsável de coordenação que é legalmente e cientificamente responsavel por todas as atividades realizadas dentro do alcance das unidades do processo de escavação e é também responsável pela documentação de todo o processo.</t>
+  </si>
+  <si>
+    <t>E53-Place</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Esta classe compreende extensões no espaço, em particular na superfície da terra, no sentido puro da física: independentes dos fenómenos temporais e da matéria. As instâncias do E53-Place são geralmente determinados por referência à posição de objetos "não móveis", tais como edificios, cidades, montanhas, rios ou marcas geodésicas dedicadas. É discutido que as instâncias do E53-Place são melhor identificadas por coordenadas globais ou sistemas de referência absolutos</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>Distrito</t>
+  </si>
+  <si>
+    <t>parish</t>
+  </si>
+  <si>
+    <t>Freguesia</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Nome (Local)</t>
+  </si>
+  <si>
+    <t>gps</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>A2-StratigraphicVolumeUnit</t>
+  </si>
+  <si>
+    <t>Esta classe compreende instâncias da A8-StratigraphicUnit que são porções de terreno conectados ou outras estruturas sólidas na, dentro ou por debaixo da superfície da terra ou fundo do mar que apresentem alguma homogenidade de estrutura ou substância e que estão completamente ligadas por superfícies ou descontinuidades em substância ou estrutura com respeito a outras porções de terreno ou superfícies de objetos ou achados. Uma instância do A2-StratigraphicVolumeUnit pode conter objetos físicos</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>S19-EncounterEvent</t>
+  </si>
+  <si>
+    <t>Esta classe inclui atividades do S4-Observation onde um E39-Actor encontra uma instância de E18-PhysicalThing que seja relevante para a missão da observação ou que seja potencialmente relevante para alguma comunidade. Esta observação produz conhecimento acerca da existência da respetiva coisa num determinado sítio ou matéria circundante. Este conhecimento pode ser novo para o grupo do pessoas ao qual o Actor pertence. Neste caso, seria retratado como uma descoberta.</t>
+  </si>
+  <si>
+    <t>Descoberta</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Esta classe inclui conceitos denotados por termos de um thesaurus e vocabulário controlado utilizado para caraterizar e classificar instâncias das classes do CRM. Instâncias do E55-Type representa conceitos em contraste a instâncias do E41-Appellation que são usadas para nomear instâncias de classes do CRM</t>
+  </si>
+  <si>
+    <t>SubTipo</t>
+  </si>
+  <si>
+    <t>inventory_number</t>
+  </si>
+  <si>
+    <t>Número de Inventário</t>
+  </si>
+  <si>
+    <t>número</t>
+  </si>
+  <si>
+    <t>E3-ConditionState</t>
+  </si>
+  <si>
+    <t>Estado de Conservação</t>
+  </si>
+  <si>
+    <t>Esta classe inclui o estado dos objetos caraterizados por uma determinada condição ao longo de um período de tempo. Uma instância desta classe descreve a condição física de qualquer objeto material ou caraterística durante um E52-TimeSpan específico. Em geral, o período de tempo durante o qual uma determinada condição pode ser afirmada pode ser mais curto do que o período de tempo real, para o qual esta condição se mantinha.</t>
+  </si>
+  <si>
+    <t>E36-VisualItem</t>
+  </si>
+  <si>
+    <t>Visualização do Item</t>
+  </si>
+  <si>
+    <t>E24-PhysicalManThing</t>
+  </si>
+  <si>
+    <t>Item feito pelo homem</t>
+  </si>
+  <si>
+    <t>Esta classe inclui todos os itens físicos que são feitos com um propósito pelo ser humano para uma determinada atividade</t>
+  </si>
+  <si>
+    <t>lenght</t>
+  </si>
+  <si>
+    <t>Comprimento</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>Largura</t>
+  </si>
+  <si>
+    <t>thickness</t>
+  </si>
+  <si>
+    <t>Grossura</t>
+  </si>
+  <si>
+    <t>body_lenght</t>
+  </si>
+  <si>
+    <t>Comprimento do Corpo</t>
+  </si>
+  <si>
+    <t>base_lenght</t>
+  </si>
+  <si>
+    <t>Comprimento da Base</t>
+  </si>
+  <si>
+    <t>E55-Type (E3-ConditionState)</t>
+  </si>
+  <si>
+    <t>Tipo do Estado de Conservação</t>
+  </si>
+  <si>
+    <t>Relativamente ao vocabulário controlado, tendo em conta cada elemento, deve ser inserido todos os termos que podem ser usados nesse campo, como por exemplo o Número de Ordem que pode ter valores tais como "triangular", "losângica", entre outros. Pode também inserir os dados relevantes ao campo como por exemplo coordenadas gps na latitude e longitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -180,6 +330,11 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -198,122 +353,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -332,34 +376,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -372,15 +566,19 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="C6:G34" totalsRowShown="0">
-  <autoFilter ref="C6:G34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="C6:G65" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="C6:G65" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Elemento(EN)"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Elemento(PT)"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sintaxe"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Descrição"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Vocabulário Controlado (se existir)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Elemento(EN)" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Elemento(PT)" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sintaxe" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Descrição" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Vocabulário Controlado (se existir)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -683,364 +881,716 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C6:I34"/>
+  <dimension ref="C6:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="5" width="23.21875" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.21875" customWidth="1"/>
+    <col min="6" max="6" width="47.44140625" customWidth="1"/>
     <col min="7" max="7" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="I9" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13" t="s">
+      <c r="D17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="3:9" ht="208.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="I8" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="14"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="14"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="14"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="14"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="3:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="3:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="3:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="3:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="3:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="3:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="3:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="3:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="3:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="3:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="3:9" ht="171" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="11"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="11"/>
+      <c r="C33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
+      <c r="C34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="3:7" ht="199.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="3:7" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="3:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="C39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="3:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C41" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C43" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C45" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C46" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C47" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I8:I16"/>
+    <mergeCell ref="I9:I17"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>